--- a/Code/Results/Cases/Case_2_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007494848293718</v>
+        <v>1.028662385041881</v>
       </c>
       <c r="D2">
-        <v>1.024997661468108</v>
+        <v>1.034478538279474</v>
       </c>
       <c r="E2">
-        <v>1.02019698705733</v>
+        <v>1.05196914091942</v>
       </c>
       <c r="F2">
-        <v>1.027256936424152</v>
+        <v>1.057278636590748</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048650211497272</v>
+        <v>1.037740101213493</v>
       </c>
       <c r="J2">
-        <v>1.029453677495867</v>
+        <v>1.033813459315038</v>
       </c>
       <c r="K2">
-        <v>1.036119386825652</v>
+        <v>1.037277896269257</v>
       </c>
       <c r="L2">
-        <v>1.031381937841288</v>
+        <v>1.054719171552567</v>
       </c>
       <c r="M2">
-        <v>1.038349162975972</v>
+        <v>1.060014043168019</v>
       </c>
       <c r="N2">
-        <v>1.01378314172308</v>
+        <v>1.015298137878576</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011172107239298</v>
+        <v>1.029425889528576</v>
       </c>
       <c r="D3">
-        <v>1.027724865426839</v>
+        <v>1.03505984993659</v>
       </c>
       <c r="E3">
-        <v>1.024629702562066</v>
+        <v>1.052997086803344</v>
       </c>
       <c r="F3">
-        <v>1.031783722762843</v>
+        <v>1.058316894026917</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04987319773067</v>
+        <v>1.037935144593535</v>
       </c>
       <c r="J3">
-        <v>1.031362774407361</v>
+        <v>1.03421862074644</v>
       </c>
       <c r="K3">
-        <v>1.03801487768588</v>
+        <v>1.037669011358081</v>
       </c>
       <c r="L3">
-        <v>1.034956849827951</v>
+        <v>1.055559316823866</v>
       </c>
       <c r="M3">
-        <v>1.042025456177952</v>
+        <v>1.060865535046</v>
       </c>
       <c r="N3">
-        <v>1.014415425645389</v>
+        <v>1.01543216461023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013505939291534</v>
+        <v>1.029920251642668</v>
       </c>
       <c r="D4">
-        <v>1.029457231498489</v>
+        <v>1.035436171099503</v>
       </c>
       <c r="E4">
-        <v>1.027449370731593</v>
+        <v>1.053663441769058</v>
       </c>
       <c r="F4">
-        <v>1.034661399827106</v>
+        <v>1.058989726098622</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050638792322184</v>
+        <v>1.038060147304765</v>
       </c>
       <c r="J4">
-        <v>1.032570359745401</v>
+        <v>1.034480427248987</v>
       </c>
       <c r="K4">
-        <v>1.039212672133739</v>
+        <v>1.03792156249964</v>
       </c>
       <c r="L4">
-        <v>1.037227419964958</v>
+        <v>1.056103543076214</v>
       </c>
       <c r="M4">
-        <v>1.044358743719843</v>
+        <v>1.061416909404649</v>
       </c>
       <c r="N4">
-        <v>1.01481538875827</v>
+        <v>1.015518759869426</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014476490312669</v>
+        <v>1.030128157355732</v>
       </c>
       <c r="D5">
-        <v>1.030177981013333</v>
+        <v>1.035594416410611</v>
       </c>
       <c r="E5">
-        <v>1.028623540321339</v>
+        <v>1.053943864853247</v>
       </c>
       <c r="F5">
-        <v>1.035859282257539</v>
+        <v>1.059272825346036</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05095460029021</v>
+        <v>1.038112409604061</v>
       </c>
       <c r="J5">
-        <v>1.033071554471925</v>
+        <v>1.03459040342484</v>
       </c>
       <c r="K5">
-        <v>1.039709510283613</v>
+        <v>1.038027607796236</v>
       </c>
       <c r="L5">
-        <v>1.03817209804211</v>
+        <v>1.056332477528944</v>
       </c>
       <c r="M5">
-        <v>1.045329107586405</v>
+        <v>1.06164880238642</v>
       </c>
       <c r="N5">
-        <v>1.014981391719065</v>
+        <v>1.015555133251548</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014638838160689</v>
+        <v>1.030163070042817</v>
       </c>
       <c r="D6">
-        <v>1.03029856168879</v>
+        <v>1.035620988785213</v>
       </c>
       <c r="E6">
-        <v>1.028820042393861</v>
+        <v>1.053990965948302</v>
       </c>
       <c r="F6">
-        <v>1.03605972659757</v>
+        <v>1.059320373032938</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051007274531488</v>
+        <v>1.038121167714694</v>
       </c>
       <c r="J6">
-        <v>1.03315533225564</v>
+        <v>1.034608863759122</v>
       </c>
       <c r="K6">
-        <v>1.039792542357063</v>
+        <v>1.03804540577501</v>
       </c>
       <c r="L6">
-        <v>1.038330144425645</v>
+        <v>1.056370924914388</v>
       </c>
       <c r="M6">
-        <v>1.045491427086619</v>
+        <v>1.061687743789788</v>
       </c>
       <c r="N6">
-        <v>1.01500914026341</v>
+        <v>1.015561238657943</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013518949040422</v>
+        <v>1.029923029392832</v>
       </c>
       <c r="D7">
-        <v>1.029466891545769</v>
+        <v>1.035438285426452</v>
       </c>
       <c r="E7">
-        <v>1.027465103589559</v>
+        <v>1.053667187667869</v>
       </c>
       <c r="F7">
-        <v>1.034677452171846</v>
+        <v>1.058993507940512</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050643035774228</v>
+        <v>1.038060846772042</v>
       </c>
       <c r="J7">
-        <v>1.032577081960399</v>
+        <v>1.034481897100334</v>
       </c>
       <c r="K7">
-        <v>1.039219337086285</v>
+        <v>1.037922979983368</v>
       </c>
       <c r="L7">
-        <v>1.037240081143823</v>
+        <v>1.056106601553853</v>
       </c>
       <c r="M7">
-        <v>1.044371750775327</v>
+        <v>1.061420007597291</v>
       </c>
       <c r="N7">
-        <v>1.014817615244009</v>
+        <v>1.015519246015668</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008747237252823</v>
+        <v>1.028920346978269</v>
       </c>
       <c r="D8">
-        <v>1.025926147305708</v>
+        <v>1.034674958312834</v>
       </c>
       <c r="E8">
-        <v>1.02170536184328</v>
+        <v>1.052316289838975</v>
       </c>
       <c r="F8">
-        <v>1.02879770204753</v>
+        <v>1.057629310701756</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049068932397115</v>
+        <v>1.037806265760656</v>
       </c>
       <c r="J8">
-        <v>1.030104708136961</v>
+        <v>1.03395045941388</v>
       </c>
       <c r="K8">
-        <v>1.036766020970792</v>
+        <v>1.037410183755094</v>
       </c>
       <c r="L8">
-        <v>1.032599132682556</v>
+        <v>1.055002978574733</v>
       </c>
       <c r="M8">
-        <v>1.039601222939811</v>
+        <v>1.060301724910806</v>
       </c>
       <c r="N8">
-        <v>1.013998755806132</v>
+        <v>1.015343459320273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.999974285430254</v>
+        <v>1.027156042138697</v>
       </c>
       <c r="D9">
-        <v>1.019429974819692</v>
+        <v>1.033331282379326</v>
       </c>
       <c r="E9">
-        <v>1.011164151964766</v>
+        <v>1.049945113818833</v>
       </c>
       <c r="F9">
-        <v>1.018022592041288</v>
+        <v>1.055233208755727</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046092244642503</v>
+        <v>1.037348477798091</v>
       </c>
       <c r="J9">
-        <v>1.025527951777845</v>
+        <v>1.033011288733924</v>
       </c>
       <c r="K9">
-        <v>1.032215488001146</v>
+        <v>1.036502590504434</v>
       </c>
       <c r="L9">
-        <v>1.024078658660533</v>
+        <v>1.053062861971313</v>
       </c>
       <c r="M9">
-        <v>1.030829879313964</v>
+        <v>1.058334295926198</v>
       </c>
       <c r="N9">
-        <v>1.012483104769032</v>
+        <v>1.015032729603148</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9938578811044568</v>
+        <v>1.02598164833908</v>
       </c>
       <c r="D10">
-        <v>1.014912569515814</v>
+        <v>1.032436542077265</v>
       </c>
       <c r="E10">
-        <v>1.003844208215492</v>
+        <v>1.048370631658418</v>
       </c>
       <c r="F10">
-        <v>1.010530869022161</v>
+        <v>1.053641112458004</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043963017141118</v>
+        <v>1.037037155383951</v>
       </c>
       <c r="J10">
-        <v>1.02231732806786</v>
+        <v>1.032383417494929</v>
       </c>
       <c r="K10">
-        <v>1.029017693747347</v>
+        <v>1.03589492096805</v>
       </c>
       <c r="L10">
-        <v>1.018144399457934</v>
+        <v>1.051772605966631</v>
       </c>
       <c r="M10">
-        <v>1.024712553393637</v>
+        <v>1.057024843260303</v>
       </c>
       <c r="N10">
-        <v>1.011420071470306</v>
+        <v>1.014824946225199</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9911404794483586</v>
+        <v>1.025473571982983</v>
       </c>
       <c r="D11">
-        <v>1.012908903620368</v>
+        <v>1.032049378197583</v>
       </c>
       <c r="E11">
-        <v>1.000598243863515</v>
+        <v>1.047690371268232</v>
       </c>
       <c r="F11">
-        <v>1.007206580230953</v>
+        <v>1.052952989639804</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043004697343781</v>
+        <v>1.036900904517431</v>
       </c>
       <c r="J11">
-        <v>1.020886526558612</v>
+        <v>1.032111138960999</v>
       </c>
       <c r="K11">
-        <v>1.027591414950483</v>
+        <v>1.035631189419329</v>
       </c>
       <c r="L11">
-        <v>1.015508886993317</v>
+        <v>1.051214670908319</v>
       </c>
       <c r="M11">
-        <v>1.021993858766956</v>
+        <v>1.05645836281708</v>
       </c>
       <c r="N11">
-        <v>1.010946401036943</v>
+        <v>1.014734829006183</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9901202612824519</v>
+        <v>1.025284918088044</v>
       </c>
       <c r="D12">
-        <v>1.012157199950741</v>
+        <v>1.031905609737097</v>
       </c>
       <c r="E12">
-        <v>0.9993804346729134</v>
+        <v>1.047437918760294</v>
       </c>
       <c r="F12">
-        <v>1.005959068709379</v>
+        <v>1.052697581399214</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042643090307466</v>
+        <v>1.036850078322574</v>
       </c>
       <c r="J12">
-        <v>1.020348715896584</v>
+        <v>1.032009942644636</v>
       </c>
       <c r="K12">
-        <v>1.027055135603039</v>
+        <v>1.035533137794587</v>
       </c>
       <c r="L12">
-        <v>1.014519514210331</v>
+        <v>1.05100754321742</v>
       </c>
       <c r="M12">
-        <v>1.020972985993459</v>
+        <v>1.056248026080612</v>
       </c>
       <c r="N12">
-        <v>1.0107683688608</v>
+        <v>1.014701333956373</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9903396009862574</v>
+        <v>1.025325381873247</v>
       </c>
       <c r="D13">
-        <v>1.012318785243494</v>
+        <v>1.031936446657385</v>
       </c>
       <c r="E13">
-        <v>0.999642217745964</v>
+        <v>1.047492060414729</v>
       </c>
       <c r="F13">
-        <v>1.006227250878961</v>
+        <v>1.052752358663275</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042720914733167</v>
+        <v>1.036860990501978</v>
       </c>
       <c r="J13">
-        <v>1.020464369531161</v>
+        <v>1.032031652293468</v>
       </c>
       <c r="K13">
-        <v>1.027170467381212</v>
+        <v>1.035554174254429</v>
       </c>
       <c r="L13">
-        <v>1.014732218547229</v>
+        <v>1.0510519676264</v>
       </c>
       <c r="M13">
-        <v>1.021192474689038</v>
+        <v>1.056293140418673</v>
       </c>
       <c r="N13">
-        <v>1.010806653298237</v>
+        <v>1.014708519725194</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9910563722827755</v>
+        <v>1.02545797639095</v>
       </c>
       <c r="D14">
-        <v>1.012846921405931</v>
+        <v>1.032037493396591</v>
       </c>
       <c r="E14">
-        <v>1.000497830324787</v>
+        <v>1.047669498838961</v>
       </c>
       <c r="F14">
-        <v>1.007103724015251</v>
+        <v>1.052931873607879</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042974923036978</v>
+        <v>1.036896707621829</v>
       </c>
       <c r="J14">
-        <v>1.02084220194743</v>
+        <v>1.032102775258592</v>
       </c>
       <c r="K14">
-        <v>1.027547219910781</v>
+        <v>1.035623086270435</v>
       </c>
       <c r="L14">
-        <v>1.015427320942663</v>
+        <v>1.051197547333221</v>
       </c>
       <c r="M14">
-        <v>1.021909701293619</v>
+        <v>1.056440974692762</v>
       </c>
       <c r="N14">
-        <v>1.010931727962084</v>
+        <v>1.014732060731363</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9914965451588259</v>
+        <v>1.02553968134568</v>
       </c>
       <c r="D15">
-        <v>1.013171326613383</v>
+        <v>1.032099757169741</v>
       </c>
       <c r="E15">
-        <v>1.001023376526319</v>
+        <v>1.047778854550873</v>
       </c>
       <c r="F15">
-        <v>1.007642041858076</v>
+        <v>1.053042504060633</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043130672326625</v>
+        <v>1.036918685443894</v>
       </c>
       <c r="J15">
-        <v>1.021074148138102</v>
+        <v>1.032146588553452</v>
       </c>
       <c r="K15">
-        <v>1.027778481256375</v>
+        <v>1.035665533348507</v>
       </c>
       <c r="L15">
-        <v>1.015854198802765</v>
+        <v>1.051287258959346</v>
       </c>
       <c r="M15">
-        <v>1.022350130332527</v>
+        <v>1.056532070809742</v>
       </c>
       <c r="N15">
-        <v>1.01100851114644</v>
+        <v>1.014746562284301</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9940367317519123</v>
+        <v>1.026015377182192</v>
       </c>
       <c r="D16">
-        <v>1.01504451801233</v>
+        <v>1.03246224258782</v>
       </c>
       <c r="E16">
-        <v>1.004057969391338</v>
+        <v>1.048415810006246</v>
       </c>
       <c r="F16">
-        <v>1.010749743852261</v>
+        <v>1.053686807657389</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044025836435182</v>
+        <v>1.037046167496736</v>
       </c>
       <c r="J16">
-        <v>1.022411409635703</v>
+        <v>1.032401479259113</v>
       </c>
       <c r="K16">
-        <v>1.029111453947851</v>
+        <v>1.035912411279942</v>
       </c>
       <c r="L16">
-        <v>1.018317876894119</v>
+        <v>1.051809650248498</v>
       </c>
       <c r="M16">
-        <v>1.024891467689712</v>
+        <v>1.057062449769564</v>
       </c>
       <c r="N16">
-        <v>1.01145121890961</v>
+        <v>1.014830923972049</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9956113222638195</v>
+        <v>1.026313888584629</v>
       </c>
       <c r="D17">
-        <v>1.016206570335788</v>
+        <v>1.032689692145073</v>
       </c>
       <c r="E17">
-        <v>1.005940602360614</v>
+        <v>1.04881575785016</v>
       </c>
       <c r="F17">
-        <v>1.01267716909781</v>
+        <v>1.054091301837692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044577491464896</v>
+        <v>1.037125746937718</v>
       </c>
       <c r="J17">
-        <v>1.023239201862055</v>
+        <v>1.032561257486071</v>
       </c>
       <c r="K17">
-        <v>1.029936283926826</v>
+        <v>1.03606710968736</v>
       </c>
       <c r="L17">
-        <v>1.019845266924539</v>
+        <v>1.052137535089807</v>
       </c>
       <c r="M17">
-        <v>1.026466513677105</v>
+        <v>1.057395282736309</v>
       </c>
       <c r="N17">
-        <v>1.01172528250143</v>
+        <v>1.014883803104599</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.996523135727015</v>
+        <v>1.026488047959173</v>
       </c>
       <c r="D18">
-        <v>1.01687980442253</v>
+        <v>1.032822385038059</v>
       </c>
       <c r="E18">
-        <v>1.007031385946776</v>
+        <v>1.049049185395585</v>
       </c>
       <c r="F18">
-        <v>1.013793700015551</v>
+        <v>1.05432735846657</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04489576820389</v>
+        <v>1.037172024692976</v>
       </c>
       <c r="J18">
-        <v>1.023718141375127</v>
+        <v>1.032654414163714</v>
       </c>
       <c r="K18">
-        <v>1.030413395524048</v>
+        <v>1.036157284042852</v>
       </c>
       <c r="L18">
-        <v>1.020729842332994</v>
+        <v>1.052328857488927</v>
       </c>
       <c r="M18">
-        <v>1.027378509469364</v>
+        <v>1.057589468794621</v>
       </c>
       <c r="N18">
-        <v>1.011883854890131</v>
+        <v>1.014914632529915</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9968329324431504</v>
+        <v>1.026547439003448</v>
       </c>
       <c r="D19">
-        <v>1.017108593331717</v>
+        <v>1.032867634144609</v>
       </c>
       <c r="E19">
-        <v>1.00740209133018</v>
+        <v>1.049128802674982</v>
       </c>
       <c r="F19">
-        <v>1.014173120739905</v>
+        <v>1.0544078683395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045003705028163</v>
+        <v>1.037187780513451</v>
       </c>
       <c r="J19">
-        <v>1.023880793613834</v>
+        <v>1.032686171491756</v>
       </c>
       <c r="K19">
-        <v>1.030575407324322</v>
+        <v>1.036188021191639</v>
       </c>
       <c r="L19">
-        <v>1.021030402029993</v>
+        <v>1.052394105789663</v>
       </c>
       <c r="M19">
-        <v>1.027688355370792</v>
+        <v>1.057655689709563</v>
       </c>
       <c r="N19">
-        <v>1.011937708526536</v>
+        <v>1.014925142167811</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9954430716647051</v>
+        <v>1.026281856705585</v>
       </c>
       <c r="D20">
-        <v>1.01608236808102</v>
+        <v>1.032665286319181</v>
       </c>
       <c r="E20">
-        <v>1.005739375735492</v>
+        <v>1.048772832253633</v>
       </c>
       <c r="F20">
-        <v>1.012471176030522</v>
+        <v>1.054047890811453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044518666821356</v>
+        <v>1.037117223249697</v>
       </c>
       <c r="J20">
-        <v>1.023150792508363</v>
+        <v>1.032544118847425</v>
       </c>
       <c r="K20">
-        <v>1.029848202701273</v>
+        <v>1.036050518066083</v>
       </c>
       <c r="L20">
-        <v>1.019682050338717</v>
+        <v>1.052102348621217</v>
       </c>
       <c r="M20">
-        <v>1.026298223106858</v>
+        <v>1.05735956770702</v>
       </c>
       <c r="N20">
-        <v>1.011696011480492</v>
+        <v>1.014878131127537</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9908456047508567</v>
+        <v>1.025418928712497</v>
       </c>
       <c r="D21">
-        <v>1.012691606720497</v>
+        <v>1.032007736492814</v>
       </c>
       <c r="E21">
-        <v>1.000246213472655</v>
+        <v>1.047617241385159</v>
       </c>
       <c r="F21">
-        <v>1.006845981204132</v>
+        <v>1.05287900564369</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042900281264402</v>
+        <v>1.036886195792494</v>
       </c>
       <c r="J21">
-        <v>1.020731117024231</v>
+        <v>1.032081832964239</v>
       </c>
       <c r="K21">
-        <v>1.027436457035358</v>
+        <v>1.035602795874069</v>
       </c>
       <c r="L21">
-        <v>1.015222922765484</v>
+        <v>1.051154674577383</v>
       </c>
       <c r="M21">
-        <v>1.021698804839218</v>
+        <v>1.056397438985821</v>
       </c>
       <c r="N21">
-        <v>1.010894954959618</v>
+        <v>1.014725129082313</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9878919285420369</v>
+        <v>1.024876767503388</v>
       </c>
       <c r="D22">
-        <v>1.010516417324662</v>
+        <v>1.031594549429759</v>
       </c>
       <c r="E22">
-        <v>0.9967220123716313</v>
+        <v>1.046891986446608</v>
       </c>
       <c r="F22">
-        <v>1.003235232599426</v>
+        <v>1.052145187994199</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041849982081327</v>
+        <v>1.036739687088626</v>
       </c>
       <c r="J22">
-        <v>1.019172912058423</v>
+        <v>1.031790829184688</v>
       </c>
       <c r="K22">
-        <v>1.025882381559767</v>
+        <v>1.035320775107291</v>
       </c>
       <c r="L22">
-        <v>1.012358687734038</v>
+        <v>1.050559495655386</v>
       </c>
       <c r="M22">
-        <v>1.018742870194939</v>
+        <v>1.055792969916354</v>
       </c>
       <c r="N22">
-        <v>1.010379163535939</v>
+        <v>1.01462880640611</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9894638791789787</v>
+        <v>1.025164139362338</v>
       </c>
       <c r="D23">
-        <v>1.011673734616932</v>
+        <v>1.031813564338227</v>
       </c>
       <c r="E23">
-        <v>0.9985971583465671</v>
+        <v>1.047276333212574</v>
       </c>
       <c r="F23">
-        <v>1.005156599837075</v>
+        <v>1.052534093328197</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042409934647158</v>
+        <v>1.036817472613411</v>
       </c>
       <c r="J23">
-        <v>1.020002527570794</v>
+        <v>1.031945128261135</v>
       </c>
       <c r="K23">
-        <v>1.026709886818651</v>
+        <v>1.035470328561912</v>
       </c>
       <c r="L23">
-        <v>1.013882999945209</v>
+        <v>1.050874948269695</v>
       </c>
       <c r="M23">
-        <v>1.020316130298713</v>
+        <v>1.056113366515734</v>
       </c>
       <c r="N23">
-        <v>1.010653773075335</v>
+        <v>1.014679880527145</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9955191172858284</v>
+        <v>1.026296330401105</v>
       </c>
       <c r="D24">
-        <v>1.016138503839154</v>
+        <v>1.03267631418305</v>
       </c>
       <c r="E24">
-        <v>1.005830323973999</v>
+        <v>1.048792228035857</v>
       </c>
       <c r="F24">
-        <v>1.01256427918983</v>
+        <v>1.054067506008671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044545257930868</v>
+        <v>1.037121075168791</v>
       </c>
       <c r="J24">
-        <v>1.023190752916741</v>
+        <v>1.032551863181933</v>
       </c>
       <c r="K24">
-        <v>1.029888015152458</v>
+        <v>1.036058015286785</v>
       </c>
       <c r="L24">
-        <v>1.019755820397895</v>
+        <v>1.052118247647162</v>
       </c>
       <c r="M24">
-        <v>1.026374287043728</v>
+        <v>1.057375705636323</v>
       </c>
       <c r="N24">
-        <v>1.011709241757831</v>
+        <v>1.014880694093367</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002287760440273</v>
+        <v>1.027611845273509</v>
       </c>
       <c r="D25">
-        <v>1.021141219762616</v>
+        <v>1.033678478148758</v>
       </c>
       <c r="E25">
-        <v>1.013938622023569</v>
+        <v>1.050557013580739</v>
       </c>
       <c r="F25">
-        <v>1.020860264947317</v>
+        <v>1.055851728562964</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046886664459602</v>
+        <v>1.037467910726562</v>
       </c>
       <c r="J25">
-        <v>1.026738376852441</v>
+        <v>1.03325440133421</v>
       </c>
       <c r="K25">
-        <v>1.033419976521635</v>
+        <v>1.036737689733027</v>
       </c>
       <c r="L25">
-        <v>1.026324344725038</v>
+        <v>1.053563876696371</v>
       </c>
       <c r="M25">
-        <v>1.033143158242069</v>
+        <v>1.05884254626203</v>
       </c>
       <c r="N25">
-        <v>1.012883922664337</v>
+        <v>1.015113173424346</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028662385041881</v>
+        <v>1.007494848293717</v>
       </c>
       <c r="D2">
-        <v>1.034478538279474</v>
+        <v>1.024997661468108</v>
       </c>
       <c r="E2">
-        <v>1.05196914091942</v>
+        <v>1.02019698705733</v>
       </c>
       <c r="F2">
-        <v>1.057278636590748</v>
+        <v>1.027256936424152</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037740101213493</v>
+        <v>1.048650211497271</v>
       </c>
       <c r="J2">
-        <v>1.033813459315038</v>
+        <v>1.029453677495867</v>
       </c>
       <c r="K2">
-        <v>1.037277896269257</v>
+        <v>1.036119386825652</v>
       </c>
       <c r="L2">
-        <v>1.054719171552567</v>
+        <v>1.031381937841287</v>
       </c>
       <c r="M2">
-        <v>1.060014043168019</v>
+        <v>1.038349162975971</v>
       </c>
       <c r="N2">
-        <v>1.015298137878576</v>
+        <v>1.01378314172308</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029425889528576</v>
+        <v>1.011172107239298</v>
       </c>
       <c r="D3">
-        <v>1.03505984993659</v>
+        <v>1.02772486542684</v>
       </c>
       <c r="E3">
-        <v>1.052997086803344</v>
+        <v>1.024629702562066</v>
       </c>
       <c r="F3">
-        <v>1.058316894026917</v>
+        <v>1.031783722762843</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037935144593535</v>
+        <v>1.04987319773067</v>
       </c>
       <c r="J3">
-        <v>1.03421862074644</v>
+        <v>1.031362774407361</v>
       </c>
       <c r="K3">
-        <v>1.037669011358081</v>
+        <v>1.03801487768588</v>
       </c>
       <c r="L3">
-        <v>1.055559316823866</v>
+        <v>1.034956849827951</v>
       </c>
       <c r="M3">
-        <v>1.060865535046</v>
+        <v>1.042025456177952</v>
       </c>
       <c r="N3">
-        <v>1.01543216461023</v>
+        <v>1.014415425645389</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029920251642668</v>
+        <v>1.013505939291534</v>
       </c>
       <c r="D4">
-        <v>1.035436171099503</v>
+        <v>1.029457231498489</v>
       </c>
       <c r="E4">
-        <v>1.053663441769058</v>
+        <v>1.027449370731593</v>
       </c>
       <c r="F4">
-        <v>1.058989726098622</v>
+        <v>1.034661399827106</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038060147304765</v>
+        <v>1.050638792322184</v>
       </c>
       <c r="J4">
-        <v>1.034480427248987</v>
+        <v>1.0325703597454</v>
       </c>
       <c r="K4">
-        <v>1.03792156249964</v>
+        <v>1.039212672133739</v>
       </c>
       <c r="L4">
-        <v>1.056103543076214</v>
+        <v>1.037227419964958</v>
       </c>
       <c r="M4">
-        <v>1.061416909404649</v>
+        <v>1.044358743719843</v>
       </c>
       <c r="N4">
-        <v>1.015518759869426</v>
+        <v>1.01481538875827</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030128157355732</v>
+        <v>1.014476490312669</v>
       </c>
       <c r="D5">
-        <v>1.035594416410611</v>
+        <v>1.030177981013333</v>
       </c>
       <c r="E5">
-        <v>1.053943864853247</v>
+        <v>1.028623540321339</v>
       </c>
       <c r="F5">
-        <v>1.059272825346036</v>
+        <v>1.035859282257539</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038112409604061</v>
+        <v>1.05095460029021</v>
       </c>
       <c r="J5">
-        <v>1.03459040342484</v>
+        <v>1.033071554471925</v>
       </c>
       <c r="K5">
-        <v>1.038027607796236</v>
+        <v>1.039709510283613</v>
       </c>
       <c r="L5">
-        <v>1.056332477528944</v>
+        <v>1.03817209804211</v>
       </c>
       <c r="M5">
-        <v>1.06164880238642</v>
+        <v>1.045329107586405</v>
       </c>
       <c r="N5">
-        <v>1.015555133251548</v>
+        <v>1.014981391719065</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030163070042817</v>
+        <v>1.014638838160688</v>
       </c>
       <c r="D6">
-        <v>1.035620988785213</v>
+        <v>1.030298561688789</v>
       </c>
       <c r="E6">
-        <v>1.053990965948302</v>
+        <v>1.028820042393862</v>
       </c>
       <c r="F6">
-        <v>1.059320373032938</v>
+        <v>1.03605972659757</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038121167714694</v>
+        <v>1.051007274531488</v>
       </c>
       <c r="J6">
-        <v>1.034608863759122</v>
+        <v>1.03315533225564</v>
       </c>
       <c r="K6">
-        <v>1.03804540577501</v>
+        <v>1.039792542357063</v>
       </c>
       <c r="L6">
-        <v>1.056370924914388</v>
+        <v>1.038330144425645</v>
       </c>
       <c r="M6">
-        <v>1.061687743789788</v>
+        <v>1.04549142708662</v>
       </c>
       <c r="N6">
-        <v>1.015561238657943</v>
+        <v>1.01500914026341</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029923029392832</v>
+        <v>1.013518949040422</v>
       </c>
       <c r="D7">
-        <v>1.035438285426452</v>
+        <v>1.029466891545769</v>
       </c>
       <c r="E7">
-        <v>1.053667187667869</v>
+        <v>1.027465103589559</v>
       </c>
       <c r="F7">
-        <v>1.058993507940512</v>
+        <v>1.034677452171846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038060846772042</v>
+        <v>1.050643035774228</v>
       </c>
       <c r="J7">
-        <v>1.034481897100334</v>
+        <v>1.032577081960399</v>
       </c>
       <c r="K7">
-        <v>1.037922979983368</v>
+        <v>1.039219337086285</v>
       </c>
       <c r="L7">
-        <v>1.056106601553853</v>
+        <v>1.037240081143823</v>
       </c>
       <c r="M7">
-        <v>1.061420007597291</v>
+        <v>1.044371750775327</v>
       </c>
       <c r="N7">
-        <v>1.015519246015668</v>
+        <v>1.014817615244009</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028920346978269</v>
+        <v>1.008747237252823</v>
       </c>
       <c r="D8">
-        <v>1.034674958312834</v>
+        <v>1.025926147305709</v>
       </c>
       <c r="E8">
-        <v>1.052316289838975</v>
+        <v>1.021705361843281</v>
       </c>
       <c r="F8">
-        <v>1.057629310701756</v>
+        <v>1.028797702047531</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037806265760656</v>
+        <v>1.049068932397115</v>
       </c>
       <c r="J8">
-        <v>1.03395045941388</v>
+        <v>1.030104708136962</v>
       </c>
       <c r="K8">
-        <v>1.037410183755094</v>
+        <v>1.036766020970793</v>
       </c>
       <c r="L8">
-        <v>1.055002978574733</v>
+        <v>1.032599132682557</v>
       </c>
       <c r="M8">
-        <v>1.060301724910806</v>
+        <v>1.039601222939811</v>
       </c>
       <c r="N8">
-        <v>1.015343459320273</v>
+        <v>1.013998755806132</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027156042138697</v>
+        <v>0.9999742854302541</v>
       </c>
       <c r="D9">
-        <v>1.033331282379326</v>
+        <v>1.019429974819692</v>
       </c>
       <c r="E9">
-        <v>1.049945113818833</v>
+        <v>1.011164151964766</v>
       </c>
       <c r="F9">
-        <v>1.055233208755727</v>
+        <v>1.018022592041289</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037348477798091</v>
+        <v>1.046092244642503</v>
       </c>
       <c r="J9">
-        <v>1.033011288733924</v>
+        <v>1.025527951777845</v>
       </c>
       <c r="K9">
-        <v>1.036502590504434</v>
+        <v>1.032215488001146</v>
       </c>
       <c r="L9">
-        <v>1.053062861971313</v>
+        <v>1.024078658660534</v>
       </c>
       <c r="M9">
-        <v>1.058334295926198</v>
+        <v>1.030829879313965</v>
       </c>
       <c r="N9">
-        <v>1.015032729603148</v>
+        <v>1.012483104769032</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02598164833908</v>
+        <v>0.9938578811044574</v>
       </c>
       <c r="D10">
-        <v>1.032436542077265</v>
+        <v>1.014912569515815</v>
       </c>
       <c r="E10">
-        <v>1.048370631658418</v>
+        <v>1.003844208215493</v>
       </c>
       <c r="F10">
-        <v>1.053641112458004</v>
+        <v>1.010530869022163</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037037155383951</v>
+        <v>1.043963017141119</v>
       </c>
       <c r="J10">
-        <v>1.032383417494929</v>
+        <v>1.022317328067861</v>
       </c>
       <c r="K10">
-        <v>1.03589492096805</v>
+        <v>1.029017693747348</v>
       </c>
       <c r="L10">
-        <v>1.051772605966631</v>
+        <v>1.018144399457935</v>
       </c>
       <c r="M10">
-        <v>1.057024843260303</v>
+        <v>1.024712553393638</v>
       </c>
       <c r="N10">
-        <v>1.014824946225199</v>
+        <v>1.011420071470306</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025473571982983</v>
+        <v>0.9911404794483577</v>
       </c>
       <c r="D11">
-        <v>1.032049378197583</v>
+        <v>1.012908903620367</v>
       </c>
       <c r="E11">
-        <v>1.047690371268232</v>
+        <v>1.000598243863514</v>
       </c>
       <c r="F11">
-        <v>1.052952989639804</v>
+        <v>1.007206580230952</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036900904517431</v>
+        <v>1.043004697343781</v>
       </c>
       <c r="J11">
-        <v>1.032111138960999</v>
+        <v>1.020886526558611</v>
       </c>
       <c r="K11">
-        <v>1.035631189419329</v>
+        <v>1.027591414950482</v>
       </c>
       <c r="L11">
-        <v>1.051214670908319</v>
+        <v>1.015508886993316</v>
       </c>
       <c r="M11">
-        <v>1.05645836281708</v>
+        <v>1.021993858766956</v>
       </c>
       <c r="N11">
-        <v>1.014734829006183</v>
+        <v>1.010946401036943</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025284918088044</v>
+        <v>0.9901202612824512</v>
       </c>
       <c r="D12">
-        <v>1.031905609737097</v>
+        <v>1.01215719995074</v>
       </c>
       <c r="E12">
-        <v>1.047437918760294</v>
+        <v>0.9993804346729133</v>
       </c>
       <c r="F12">
-        <v>1.052697581399214</v>
+        <v>1.005959068709379</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036850078322574</v>
+        <v>1.042643090307465</v>
       </c>
       <c r="J12">
-        <v>1.032009942644636</v>
+        <v>1.020348715896583</v>
       </c>
       <c r="K12">
-        <v>1.035533137794587</v>
+        <v>1.027055135603038</v>
       </c>
       <c r="L12">
-        <v>1.05100754321742</v>
+        <v>1.014519514210331</v>
       </c>
       <c r="M12">
-        <v>1.056248026080612</v>
+        <v>1.020972985993458</v>
       </c>
       <c r="N12">
-        <v>1.014701333956373</v>
+        <v>1.0107683688608</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025325381873247</v>
+        <v>0.9903396009862571</v>
       </c>
       <c r="D13">
-        <v>1.031936446657385</v>
+        <v>1.012318785243494</v>
       </c>
       <c r="E13">
-        <v>1.047492060414729</v>
+        <v>0.9996422177459638</v>
       </c>
       <c r="F13">
-        <v>1.052752358663275</v>
+        <v>1.006227250878961</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036860990501978</v>
+        <v>1.042720914733167</v>
       </c>
       <c r="J13">
-        <v>1.032031652293468</v>
+        <v>1.020464369531161</v>
       </c>
       <c r="K13">
-        <v>1.035554174254429</v>
+        <v>1.027170467381212</v>
       </c>
       <c r="L13">
-        <v>1.0510519676264</v>
+        <v>1.014732218547229</v>
       </c>
       <c r="M13">
-        <v>1.056293140418673</v>
+        <v>1.021192474689038</v>
       </c>
       <c r="N13">
-        <v>1.014708519725194</v>
+        <v>1.010806653298237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02545797639095</v>
+        <v>0.9910563722827753</v>
       </c>
       <c r="D14">
-        <v>1.032037493396591</v>
+        <v>1.012846921405931</v>
       </c>
       <c r="E14">
-        <v>1.047669498838961</v>
+        <v>1.000497830324787</v>
       </c>
       <c r="F14">
-        <v>1.052931873607879</v>
+        <v>1.007103724015251</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036896707621829</v>
+        <v>1.042974923036978</v>
       </c>
       <c r="J14">
-        <v>1.032102775258592</v>
+        <v>1.02084220194743</v>
       </c>
       <c r="K14">
-        <v>1.035623086270435</v>
+        <v>1.027547219910781</v>
       </c>
       <c r="L14">
-        <v>1.051197547333221</v>
+        <v>1.015427320942663</v>
       </c>
       <c r="M14">
-        <v>1.056440974692762</v>
+        <v>1.021909701293618</v>
       </c>
       <c r="N14">
-        <v>1.014732060731363</v>
+        <v>1.010931727962084</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02553968134568</v>
+        <v>0.991496545158826</v>
       </c>
       <c r="D15">
-        <v>1.032099757169741</v>
+        <v>1.013171326613384</v>
       </c>
       <c r="E15">
-        <v>1.047778854550873</v>
+        <v>1.001023376526319</v>
       </c>
       <c r="F15">
-        <v>1.053042504060633</v>
+        <v>1.007642041858076</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036918685443894</v>
+        <v>1.043130672326625</v>
       </c>
       <c r="J15">
-        <v>1.032146588553452</v>
+        <v>1.021074148138102</v>
       </c>
       <c r="K15">
-        <v>1.035665533348507</v>
+        <v>1.027778481256375</v>
       </c>
       <c r="L15">
-        <v>1.051287258959346</v>
+        <v>1.015854198802765</v>
       </c>
       <c r="M15">
-        <v>1.056532070809742</v>
+        <v>1.022350130332527</v>
       </c>
       <c r="N15">
-        <v>1.014746562284301</v>
+        <v>1.01100851114644</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026015377182192</v>
+        <v>0.994036731751912</v>
       </c>
       <c r="D16">
-        <v>1.03246224258782</v>
+        <v>1.01504451801233</v>
       </c>
       <c r="E16">
-        <v>1.048415810006246</v>
+        <v>1.004057969391339</v>
       </c>
       <c r="F16">
-        <v>1.053686807657389</v>
+        <v>1.010749743852262</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037046167496736</v>
+        <v>1.044025836435182</v>
       </c>
       <c r="J16">
-        <v>1.032401479259113</v>
+        <v>1.022411409635702</v>
       </c>
       <c r="K16">
-        <v>1.035912411279942</v>
+        <v>1.029111453947851</v>
       </c>
       <c r="L16">
-        <v>1.051809650248498</v>
+        <v>1.018317876894119</v>
       </c>
       <c r="M16">
-        <v>1.057062449769564</v>
+        <v>1.024891467689713</v>
       </c>
       <c r="N16">
-        <v>1.014830923972049</v>
+        <v>1.01145121890961</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026313888584629</v>
+        <v>0.9956113222638192</v>
       </c>
       <c r="D17">
-        <v>1.032689692145073</v>
+        <v>1.016206570335787</v>
       </c>
       <c r="E17">
-        <v>1.04881575785016</v>
+        <v>1.005940602360613</v>
       </c>
       <c r="F17">
-        <v>1.054091301837692</v>
+        <v>1.012677169097809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037125746937718</v>
+        <v>1.044577491464895</v>
       </c>
       <c r="J17">
-        <v>1.032561257486071</v>
+        <v>1.023239201862055</v>
       </c>
       <c r="K17">
-        <v>1.03606710968736</v>
+        <v>1.029936283926826</v>
       </c>
       <c r="L17">
-        <v>1.052137535089807</v>
+        <v>1.019845266924538</v>
       </c>
       <c r="M17">
-        <v>1.057395282736309</v>
+        <v>1.026466513677104</v>
       </c>
       <c r="N17">
-        <v>1.014883803104599</v>
+        <v>1.01172528250143</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026488047959173</v>
+        <v>0.9965231357270148</v>
       </c>
       <c r="D18">
-        <v>1.032822385038059</v>
+        <v>1.01687980442253</v>
       </c>
       <c r="E18">
-        <v>1.049049185395585</v>
+        <v>1.007031385946776</v>
       </c>
       <c r="F18">
-        <v>1.05432735846657</v>
+        <v>1.013793700015551</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037172024692976</v>
+        <v>1.04489576820389</v>
       </c>
       <c r="J18">
-        <v>1.032654414163714</v>
+        <v>1.023718141375127</v>
       </c>
       <c r="K18">
-        <v>1.036157284042852</v>
+        <v>1.030413395524048</v>
       </c>
       <c r="L18">
-        <v>1.052328857488927</v>
+        <v>1.020729842332994</v>
       </c>
       <c r="M18">
-        <v>1.057589468794621</v>
+        <v>1.027378509469364</v>
       </c>
       <c r="N18">
-        <v>1.014914632529915</v>
+        <v>1.011883854890131</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026547439003448</v>
+        <v>0.9968329324431501</v>
       </c>
       <c r="D19">
-        <v>1.032867634144609</v>
+        <v>1.017108593331716</v>
       </c>
       <c r="E19">
-        <v>1.049128802674982</v>
+        <v>1.00740209133018</v>
       </c>
       <c r="F19">
-        <v>1.0544078683395</v>
+        <v>1.014173120739904</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037187780513451</v>
+        <v>1.045003705028163</v>
       </c>
       <c r="J19">
-        <v>1.032686171491756</v>
+        <v>1.023880793613833</v>
       </c>
       <c r="K19">
-        <v>1.036188021191639</v>
+        <v>1.030575407324322</v>
       </c>
       <c r="L19">
-        <v>1.052394105789663</v>
+        <v>1.021030402029992</v>
       </c>
       <c r="M19">
-        <v>1.057655689709563</v>
+        <v>1.027688355370791</v>
       </c>
       <c r="N19">
-        <v>1.014925142167811</v>
+        <v>1.011937708526536</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026281856705585</v>
+        <v>0.9954430716647046</v>
       </c>
       <c r="D20">
-        <v>1.032665286319181</v>
+        <v>1.01608236808102</v>
       </c>
       <c r="E20">
-        <v>1.048772832253633</v>
+        <v>1.005739375735492</v>
       </c>
       <c r="F20">
-        <v>1.054047890811453</v>
+        <v>1.012471176030522</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037117223249697</v>
+        <v>1.044518666821356</v>
       </c>
       <c r="J20">
-        <v>1.032544118847425</v>
+        <v>1.023150792508363</v>
       </c>
       <c r="K20">
-        <v>1.036050518066083</v>
+        <v>1.029848202701273</v>
       </c>
       <c r="L20">
-        <v>1.052102348621217</v>
+        <v>1.019682050338717</v>
       </c>
       <c r="M20">
-        <v>1.05735956770702</v>
+        <v>1.026298223106858</v>
       </c>
       <c r="N20">
-        <v>1.014878131127537</v>
+        <v>1.011696011480492</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025418928712497</v>
+        <v>0.9908456047508566</v>
       </c>
       <c r="D21">
-        <v>1.032007736492814</v>
+        <v>1.012691606720497</v>
       </c>
       <c r="E21">
-        <v>1.047617241385159</v>
+        <v>1.000246213472655</v>
       </c>
       <c r="F21">
-        <v>1.05287900564369</v>
+        <v>1.006845981204132</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036886195792494</v>
+        <v>1.042900281264402</v>
       </c>
       <c r="J21">
-        <v>1.032081832964239</v>
+        <v>1.020731117024231</v>
       </c>
       <c r="K21">
-        <v>1.035602795874069</v>
+        <v>1.027436457035358</v>
       </c>
       <c r="L21">
-        <v>1.051154674577383</v>
+        <v>1.015222922765485</v>
       </c>
       <c r="M21">
-        <v>1.056397438985821</v>
+        <v>1.021698804839218</v>
       </c>
       <c r="N21">
-        <v>1.014725129082313</v>
+        <v>1.010894954959618</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024876767503388</v>
+        <v>0.9878919285420366</v>
       </c>
       <c r="D22">
-        <v>1.031594549429759</v>
+        <v>1.010516417324661</v>
       </c>
       <c r="E22">
-        <v>1.046891986446608</v>
+        <v>0.9967220123716316</v>
       </c>
       <c r="F22">
-        <v>1.052145187994199</v>
+        <v>1.003235232599426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036739687088626</v>
+        <v>1.041849982081327</v>
       </c>
       <c r="J22">
-        <v>1.031790829184688</v>
+        <v>1.019172912058422</v>
       </c>
       <c r="K22">
-        <v>1.035320775107291</v>
+        <v>1.025882381559766</v>
       </c>
       <c r="L22">
-        <v>1.050559495655386</v>
+        <v>1.012358687734038</v>
       </c>
       <c r="M22">
-        <v>1.055792969916354</v>
+        <v>1.018742870194939</v>
       </c>
       <c r="N22">
-        <v>1.01462880640611</v>
+        <v>1.010379163535938</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025164139362338</v>
+        <v>0.9894638791789787</v>
       </c>
       <c r="D23">
-        <v>1.031813564338227</v>
+        <v>1.011673734616932</v>
       </c>
       <c r="E23">
-        <v>1.047276333212574</v>
+        <v>0.9985971583465674</v>
       </c>
       <c r="F23">
-        <v>1.052534093328197</v>
+        <v>1.005156599837075</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036817472613411</v>
+        <v>1.042409934647158</v>
       </c>
       <c r="J23">
-        <v>1.031945128261135</v>
+        <v>1.020002527570794</v>
       </c>
       <c r="K23">
-        <v>1.035470328561912</v>
+        <v>1.026709886818651</v>
       </c>
       <c r="L23">
-        <v>1.050874948269695</v>
+        <v>1.013882999945209</v>
       </c>
       <c r="M23">
-        <v>1.056113366515734</v>
+        <v>1.020316130298713</v>
       </c>
       <c r="N23">
-        <v>1.014679880527145</v>
+        <v>1.010653773075335</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026296330401105</v>
+        <v>0.9955191172858276</v>
       </c>
       <c r="D24">
-        <v>1.03267631418305</v>
+        <v>1.016138503839153</v>
       </c>
       <c r="E24">
-        <v>1.048792228035857</v>
+        <v>1.005830323973998</v>
       </c>
       <c r="F24">
-        <v>1.054067506008671</v>
+        <v>1.012564279189829</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037121075168791</v>
+        <v>1.044545257930867</v>
       </c>
       <c r="J24">
-        <v>1.032551863181933</v>
+        <v>1.023190752916741</v>
       </c>
       <c r="K24">
-        <v>1.036058015286785</v>
+        <v>1.029888015152458</v>
       </c>
       <c r="L24">
-        <v>1.052118247647162</v>
+        <v>1.019755820397894</v>
       </c>
       <c r="M24">
-        <v>1.057375705636323</v>
+        <v>1.026374287043727</v>
       </c>
       <c r="N24">
-        <v>1.014880694093367</v>
+        <v>1.011709241757831</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027611845273509</v>
+        <v>1.002287760440273</v>
       </c>
       <c r="D25">
-        <v>1.033678478148758</v>
+        <v>1.021141219762616</v>
       </c>
       <c r="E25">
-        <v>1.050557013580739</v>
+        <v>1.01393862202357</v>
       </c>
       <c r="F25">
-        <v>1.055851728562964</v>
+        <v>1.020860264947318</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037467910726562</v>
+        <v>1.046886664459603</v>
       </c>
       <c r="J25">
-        <v>1.03325440133421</v>
+        <v>1.026738376852441</v>
       </c>
       <c r="K25">
-        <v>1.036737689733027</v>
+        <v>1.033419976521635</v>
       </c>
       <c r="L25">
-        <v>1.053563876696371</v>
+        <v>1.026324344725039</v>
       </c>
       <c r="M25">
-        <v>1.05884254626203</v>
+        <v>1.03314315824207</v>
       </c>
       <c r="N25">
-        <v>1.015113173424346</v>
+        <v>1.012883922664337</v>
       </c>
     </row>
   </sheetData>
